--- a/Code/Results/Cases/Case_5_66/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_66/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9889437508818397</v>
+        <v>1.021023025749022</v>
       </c>
       <c r="D2">
-        <v>1.009922342023866</v>
+        <v>1.026857640674566</v>
       </c>
       <c r="E2">
-        <v>0.9969058469729757</v>
+        <v>1.021951966342954</v>
       </c>
       <c r="F2">
-        <v>0.9981880596026977</v>
+        <v>1.032116099227337</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041438006221646</v>
+        <v>1.030361160355374</v>
       </c>
       <c r="J2">
-        <v>1.011460257354392</v>
+        <v>1.026216834019222</v>
       </c>
       <c r="K2">
-        <v>1.021245152199638</v>
+        <v>1.029679062523881</v>
       </c>
       <c r="L2">
-        <v>1.008408457241264</v>
+        <v>1.024787780392354</v>
       </c>
       <c r="M2">
-        <v>1.009672695486024</v>
+        <v>1.034922259029289</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9938498338838593</v>
+        <v>1.022035308878848</v>
       </c>
       <c r="D3">
-        <v>1.013609249305252</v>
+        <v>1.027620776174032</v>
       </c>
       <c r="E3">
-        <v>1.000833755427376</v>
+        <v>1.022812020828122</v>
       </c>
       <c r="F3">
-        <v>1.003882096065704</v>
+        <v>1.033349849340407</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042987641901945</v>
+        <v>1.030586067626785</v>
       </c>
       <c r="J3">
-        <v>1.014509574425493</v>
+        <v>1.026866229871618</v>
       </c>
       <c r="K3">
-        <v>1.024070908951395</v>
+        <v>1.030249921204314</v>
       </c>
       <c r="L3">
-        <v>1.011455979301515</v>
+        <v>1.025454251091352</v>
       </c>
       <c r="M3">
-        <v>1.014465544566522</v>
+        <v>1.035963576800367</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9969520679279313</v>
+        <v>1.022690289298438</v>
       </c>
       <c r="D4">
-        <v>1.015940465788945</v>
+        <v>1.028114135043577</v>
       </c>
       <c r="E4">
-        <v>1.003323814337479</v>
+        <v>1.023368899236907</v>
       </c>
       <c r="F4">
-        <v>1.007482026542821</v>
+        <v>1.034148103976442</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043952215906624</v>
+        <v>1.030729709575228</v>
       </c>
       <c r="J4">
-        <v>1.016434062776142</v>
+        <v>1.027285843640974</v>
       </c>
       <c r="K4">
-        <v>1.025850236148334</v>
+        <v>1.030618207240159</v>
       </c>
       <c r="L4">
-        <v>1.013382288699314</v>
+        <v>1.025885232049177</v>
       </c>
       <c r="M4">
-        <v>1.017490981102589</v>
+        <v>1.036636760968425</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9982396146979904</v>
+        <v>1.022965634922377</v>
       </c>
       <c r="D5">
-        <v>1.01690792024723</v>
+        <v>1.02832143690781</v>
       </c>
       <c r="E5">
-        <v>1.004358756758101</v>
+        <v>1.023603097918481</v>
       </c>
       <c r="F5">
-        <v>1.008976050319079</v>
+        <v>1.034483675871122</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044348829080335</v>
+        <v>1.030789644338343</v>
       </c>
       <c r="J5">
-        <v>1.017231883966748</v>
+        <v>1.027462108071866</v>
       </c>
       <c r="K5">
-        <v>1.026586882109729</v>
+        <v>1.030772771469811</v>
       </c>
       <c r="L5">
-        <v>1.01418157113606</v>
+        <v>1.026066351428871</v>
       </c>
       <c r="M5">
-        <v>1.018745422336212</v>
+        <v>1.036919620342932</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9984548432703672</v>
+        <v>1.023011866189614</v>
       </c>
       <c r="D6">
-        <v>1.017069634458367</v>
+        <v>1.028356237555486</v>
       </c>
       <c r="E6">
-        <v>1.004531844640047</v>
+        <v>1.023642425993546</v>
       </c>
       <c r="F6">
-        <v>1.009225790125849</v>
+        <v>1.034540019056433</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044414907298498</v>
+        <v>1.030799681116231</v>
       </c>
       <c r="J6">
-        <v>1.01736519429897</v>
+        <v>1.027491695358307</v>
       </c>
       <c r="K6">
-        <v>1.02670991126832</v>
+        <v>1.030798708036184</v>
       </c>
       <c r="L6">
-        <v>1.014315167103903</v>
+        <v>1.026096758347196</v>
       </c>
       <c r="M6">
-        <v>1.018955044932264</v>
+        <v>1.036967105062466</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9969693366691095</v>
+        <v>1.022693968512018</v>
       </c>
       <c r="D7">
-        <v>1.015953441852891</v>
+        <v>1.028116905439404</v>
       </c>
       <c r="E7">
-        <v>1.00333768936519</v>
+        <v>1.023372028269995</v>
       </c>
       <c r="F7">
-        <v>1.007502064863762</v>
+        <v>1.034152587959675</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043957550112414</v>
+        <v>1.03073051220413</v>
       </c>
       <c r="J7">
-        <v>1.016444766920982</v>
+        <v>1.027288199450057</v>
       </c>
       <c r="K7">
-        <v>1.025860123491371</v>
+        <v>1.030620273569789</v>
       </c>
       <c r="L7">
-        <v>1.01339300965918</v>
+        <v>1.025887652431098</v>
       </c>
       <c r="M7">
-        <v>1.017507810676889</v>
+        <v>1.036640541126947</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9906171852858759</v>
+        <v>1.021365138770246</v>
       </c>
       <c r="D8">
-        <v>1.011179904089086</v>
+        <v>1.027115636766293</v>
       </c>
       <c r="E8">
-        <v>0.9982442665850481</v>
+        <v>1.022242549751743</v>
       </c>
       <c r="F8">
-        <v>1.00013040290699</v>
+        <v>1.032533064755057</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041969758721727</v>
+        <v>1.030437559585888</v>
       </c>
       <c r="J8">
-        <v>1.01250110881084</v>
+        <v>1.026436422151552</v>
       </c>
       <c r="K8">
-        <v>1.022210536422531</v>
+        <v>1.029872213919613</v>
       </c>
       <c r="L8">
-        <v>1.009448073036297</v>
+        <v>1.025013073018771</v>
       </c>
       <c r="M8">
-        <v>1.011308608091851</v>
+        <v>1.035274305651307</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9788370411315392</v>
+        <v>1.019023301711726</v>
       </c>
       <c r="D9">
-        <v>1.002329680567766</v>
+        <v>1.025347926024503</v>
       </c>
       <c r="E9">
-        <v>0.9888517833761181</v>
+        <v>1.020255087863559</v>
       </c>
       <c r="F9">
-        <v>0.9864529334601893</v>
+        <v>1.029678720373752</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03816340253987</v>
+        <v>1.029906891755308</v>
       </c>
       <c r="J9">
-        <v>1.005159907429086</v>
+        <v>1.02493098261118</v>
       </c>
       <c r="K9">
-        <v>1.015385073073773</v>
+        <v>1.028545648330748</v>
       </c>
       <c r="L9">
-        <v>1.002128359806191</v>
+        <v>1.02346989778703</v>
       </c>
       <c r="M9">
-        <v>0.9997696940179067</v>
+        <v>1.032862057811753</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.970539421564213</v>
+        <v>1.017461885053878</v>
       </c>
       <c r="D10">
-        <v>0.9961021638919468</v>
+        <v>1.024167237915181</v>
       </c>
       <c r="E10">
-        <v>0.9822760129154887</v>
+        <v>1.018932040513843</v>
       </c>
       <c r="F10">
-        <v>0.9768108621299709</v>
+        <v>1.02777539502124</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035404344573162</v>
+        <v>1.029543414756537</v>
       </c>
       <c r="J10">
-        <v>0.9999727058618715</v>
+        <v>1.023924342570065</v>
       </c>
       <c r="K10">
-        <v>1.010542153421009</v>
+        <v>1.027655653204197</v>
       </c>
       <c r="L10">
-        <v>0.9969728270700771</v>
+        <v>1.022439750198952</v>
       </c>
       <c r="M10">
-        <v>0.991611818000671</v>
+        <v>1.031250638827236</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9668288437517374</v>
+        <v>1.016785725396325</v>
       </c>
       <c r="D11">
-        <v>0.9933199435920849</v>
+        <v>1.023655468594213</v>
       </c>
       <c r="E11">
-        <v>0.9793458624923305</v>
+        <v>1.018359608842899</v>
       </c>
       <c r="F11">
-        <v>0.9724962657110549</v>
+        <v>1.026951116252103</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034152815191589</v>
+        <v>1.029383727610242</v>
       </c>
       <c r="J11">
-        <v>0.9976497907995076</v>
+        <v>1.023487743101467</v>
       </c>
       <c r="K11">
-        <v>1.008368945169578</v>
+        <v>1.027268946873312</v>
       </c>
       <c r="L11">
-        <v>0.9946680876819011</v>
+        <v>1.021993364302189</v>
       </c>
       <c r="M11">
-        <v>0.9879561941896087</v>
+        <v>1.030552092907546</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9654317455350926</v>
+        <v>1.016534560770623</v>
       </c>
       <c r="D12">
-        <v>0.9922728869272979</v>
+        <v>1.023465296480981</v>
       </c>
       <c r="E12">
-        <v>0.9782442632568972</v>
+        <v>1.018147051172518</v>
       </c>
       <c r="F12">
-        <v>0.9708712383142467</v>
+        <v>1.026644921926504</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033678999714853</v>
+        <v>1.02932406740875</v>
       </c>
       <c r="J12">
-        <v>0.9967747330677798</v>
+        <v>1.023325462826982</v>
       </c>
       <c r="K12">
-        <v>1.007549638794915</v>
+        <v>1.027125106940797</v>
       </c>
       <c r="L12">
-        <v>0.9938004849698773</v>
+        <v>1.021827508000153</v>
       </c>
       <c r="M12">
-        <v>0.9865786175792168</v>
+        <v>1.030292501877016</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9657322992053101</v>
+        <v>1.016588436841444</v>
       </c>
       <c r="D13">
-        <v>0.9924981129536282</v>
+        <v>1.023506092576274</v>
       </c>
       <c r="E13">
-        <v>0.978481170938898</v>
+        <v>1.018192642389192</v>
       </c>
       <c r="F13">
-        <v>0.9712208500110074</v>
+        <v>1.026710602600263</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033781046210671</v>
+        <v>1.02933688034711</v>
       </c>
       <c r="J13">
-        <v>0.9969630006503408</v>
+        <v>1.023360277374097</v>
       </c>
       <c r="K13">
-        <v>1.007725940191818</v>
+        <v>1.027155970140797</v>
       </c>
       <c r="L13">
-        <v>0.9939871210082643</v>
+        <v>1.021863086941554</v>
       </c>
       <c r="M13">
-        <v>0.986875025095073</v>
+        <v>1.030348190481914</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9667137501772957</v>
+        <v>1.016764964232427</v>
       </c>
       <c r="D14">
-        <v>0.9932336758597082</v>
+        <v>1.02363975050065</v>
       </c>
       <c r="E14">
-        <v>0.979255078140171</v>
+        <v>1.018342037351225</v>
       </c>
       <c r="F14">
-        <v>0.9723624060161613</v>
+        <v>1.026925806560371</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034113834312596</v>
+        <v>1.029378803122272</v>
       </c>
       <c r="J14">
-        <v>0.9975777117605771</v>
+        <v>1.023474331162115</v>
       </c>
       <c r="K14">
-        <v>1.008301471328005</v>
+        <v>1.027257061097967</v>
       </c>
       <c r="L14">
-        <v>0.9945966103165633</v>
+        <v>1.021979655561222</v>
       </c>
       <c r="M14">
-        <v>0.9878427328011435</v>
+        <v>1.0305306374861</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9673159240916727</v>
+        <v>1.016873727402467</v>
       </c>
       <c r="D15">
-        <v>0.9936850528113027</v>
+        <v>1.023722091210381</v>
       </c>
       <c r="E15">
-        <v>0.9797301331883921</v>
+        <v>1.018434093663436</v>
       </c>
       <c r="F15">
-        <v>0.9730627438642662</v>
+        <v>1.027058398062463</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03431767856765</v>
+        <v>1.029404587378264</v>
       </c>
       <c r="J15">
-        <v>0.9979548144405521</v>
+        <v>1.023544589182519</v>
       </c>
       <c r="K15">
-        <v>1.008654454494852</v>
+        <v>1.027319320079859</v>
       </c>
       <c r="L15">
-        <v>0.9949705899785356</v>
+        <v>1.022051470885672</v>
       </c>
       <c r="M15">
-        <v>0.988436319189327</v>
+        <v>1.030643033174634</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.970783105752535</v>
+        <v>1.017506758329225</v>
       </c>
       <c r="D16">
-        <v>0.9962849435407852</v>
+        <v>1.024201191367888</v>
       </c>
       <c r="E16">
-        <v>0.9824686684654332</v>
+        <v>1.018970040567531</v>
       </c>
       <c r="F16">
-        <v>0.9770941487467458</v>
+        <v>1.027830096898062</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035486173348137</v>
+        <v>1.029553964237325</v>
       </c>
       <c r="J16">
-        <v>1.000125194605379</v>
+        <v>1.023953303120903</v>
       </c>
       <c r="K16">
-        <v>1.010684723971875</v>
+        <v>1.027681289573074</v>
       </c>
       <c r="L16">
-        <v>0.9971242063475131</v>
+        <v>1.022469368522424</v>
       </c>
       <c r="M16">
-        <v>0.9918517334117625</v>
+        <v>1.031296982258285</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.972925697343889</v>
+        <v>1.017903826634185</v>
       </c>
       <c r="D17">
-        <v>0.9978923436843826</v>
+        <v>1.024501578390591</v>
       </c>
       <c r="E17">
-        <v>0.9841637867061046</v>
+        <v>1.019306348382218</v>
       </c>
       <c r="F17">
-        <v>0.9795846171603778</v>
+        <v>1.028314128303831</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036203648252618</v>
+        <v>1.029647048935288</v>
       </c>
       <c r="J17">
-        <v>1.001465585366487</v>
+        <v>1.024209486455568</v>
       </c>
       <c r="K17">
-        <v>1.011937428946839</v>
+        <v>1.027907986864687</v>
       </c>
       <c r="L17">
-        <v>0.9984552989404619</v>
+        <v>1.022731417714858</v>
       </c>
       <c r="M17">
-        <v>0.993960328053115</v>
+        <v>1.031706974691625</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9741641654287693</v>
+        <v>1.018135424489402</v>
       </c>
       <c r="D18">
-        <v>0.9988217011406477</v>
+        <v>1.024676738510691</v>
       </c>
       <c r="E18">
-        <v>0.9851445869838616</v>
+        <v>1.019502555069406</v>
       </c>
       <c r="F18">
-        <v>0.9810239072882303</v>
+        <v>1.028596443546143</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036616683994894</v>
+        <v>1.029701121815175</v>
       </c>
       <c r="J18">
-        <v>1.002240049346496</v>
+        <v>1.024358844612065</v>
       </c>
       <c r="K18">
-        <v>1.012660804601249</v>
+        <v>1.028040086971639</v>
       </c>
       <c r="L18">
-        <v>0.9992247676427484</v>
+        <v>1.022884235188965</v>
       </c>
       <c r="M18">
-        <v>0.995178434420791</v>
+        <v>1.031946040112206</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9745845728637357</v>
+        <v>1.018214392474965</v>
       </c>
       <c r="D19">
-        <v>0.9991372168111401</v>
+        <v>1.02473645499711</v>
       </c>
       <c r="E19">
-        <v>0.9854776912766774</v>
+        <v>1.01956946393671</v>
       </c>
       <c r="F19">
-        <v>0.9815124437762905</v>
+        <v>1.028692703743671</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036756604877269</v>
+        <v>1.029719521635837</v>
       </c>
       <c r="J19">
-        <v>1.002502892396923</v>
+        <v>1.024409760136888</v>
       </c>
       <c r="K19">
-        <v>1.012906236159959</v>
+        <v>1.028085107876799</v>
       </c>
       <c r="L19">
-        <v>0.9994859791025751</v>
+        <v>1.022936336670112</v>
       </c>
       <c r="M19">
-        <v>0.9955918103969018</v>
+        <v>1.032027542347841</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9726969911727289</v>
+        <v>1.0178612255211</v>
       </c>
       <c r="D20">
-        <v>0.9977207394489039</v>
+        <v>1.02446935493087</v>
       </c>
       <c r="E20">
-        <v>0.9839827425358606</v>
+        <v>1.019270261179776</v>
       </c>
       <c r="F20">
-        <v>0.97931880510275</v>
+        <v>1.02826219757572</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036127237045546</v>
+        <v>1.029637084773963</v>
       </c>
       <c r="J20">
-        <v>1.001322540487678</v>
+        <v>1.024182007570587</v>
       </c>
       <c r="K20">
-        <v>1.01180378565604</v>
+        <v>1.02788367768948</v>
       </c>
       <c r="L20">
-        <v>0.9983132071477001</v>
+        <v>1.022703305561753</v>
       </c>
       <c r="M20">
-        <v>0.9937353248267182</v>
+        <v>1.031662994276506</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9664252666890468</v>
+        <v>1.016712981562542</v>
       </c>
       <c r="D21">
-        <v>0.9930174530917848</v>
+        <v>1.023600393728327</v>
       </c>
       <c r="E21">
-        <v>0.9790275529589777</v>
+        <v>1.01829804235265</v>
       </c>
       <c r="F21">
-        <v>0.9720268765685074</v>
+        <v>1.026862434935709</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034016086749533</v>
+        <v>1.029366467440311</v>
       </c>
       <c r="J21">
-        <v>0.9973970378586751</v>
+        <v>1.023440748139619</v>
       </c>
       <c r="K21">
-        <v>1.008132330573816</v>
+        <v>1.027227297849487</v>
       </c>
       <c r="L21">
-        <v>0.9944174543941017</v>
+        <v>1.021945330351417</v>
       </c>
       <c r="M21">
-        <v>0.9875583214418474</v>
+        <v>1.03047691471189</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9623724299582277</v>
+        <v>1.015990983756228</v>
       </c>
       <c r="D22">
-        <v>0.9899811156041362</v>
+        <v>1.023053591106814</v>
       </c>
       <c r="E22">
-        <v>0.9758351646297181</v>
+        <v>1.017687168820078</v>
       </c>
       <c r="F22">
-        <v>0.9673117798394253</v>
+        <v>1.025982229308187</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032636763767292</v>
+        <v>1.029194321935673</v>
       </c>
       <c r="J22">
-        <v>0.9948578153186868</v>
+        <v>1.022974065274338</v>
       </c>
       <c r="K22">
-        <v>1.005753696054889</v>
+        <v>1.026813448855532</v>
       </c>
       <c r="L22">
-        <v>0.9919010275026036</v>
+        <v>1.021468479534298</v>
       </c>
       <c r="M22">
-        <v>0.9835598521017125</v>
+        <v>1.029730484710148</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.964531709618738</v>
+        <v>1.016373733453141</v>
       </c>
       <c r="D23">
-        <v>0.9915985079113819</v>
+        <v>1.02334350423649</v>
       </c>
       <c r="E23">
-        <v>0.9775350704989768</v>
+        <v>1.018010966500164</v>
       </c>
       <c r="F23">
-        <v>0.9698242124788833</v>
+        <v>1.026448854779622</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033373037561193</v>
+        <v>1.029285768831634</v>
       </c>
       <c r="J23">
-        <v>0.9962108881214936</v>
+        <v>1.023221521795741</v>
       </c>
       <c r="K23">
-        <v>1.007021539257793</v>
+        <v>1.027032947630211</v>
       </c>
       <c r="L23">
-        <v>0.9932416161558451</v>
+        <v>1.021721293829054</v>
       </c>
       <c r="M23">
-        <v>0.9856908231860237</v>
+        <v>1.030126247614299</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9728003683880545</v>
+        <v>1.017880475146721</v>
       </c>
       <c r="D24">
-        <v>0.9977983053387304</v>
+        <v>1.0244839154814</v>
       </c>
       <c r="E24">
-        <v>0.9840645730639214</v>
+        <v>1.019286567297095</v>
       </c>
       <c r="F24">
-        <v>0.9794389553042736</v>
+        <v>1.028285662873288</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036161780809537</v>
+        <v>1.029641587834978</v>
       </c>
       <c r="J24">
-        <v>1.001387199015717</v>
+        <v>1.024194424309744</v>
       </c>
       <c r="K24">
-        <v>1.011864195837627</v>
+        <v>1.027894662356605</v>
       </c>
       <c r="L24">
-        <v>0.9983774336964762</v>
+        <v>1.022716008330556</v>
       </c>
       <c r="M24">
-        <v>0.9938370304800677</v>
+        <v>1.031682867368113</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9819569097813529</v>
+        <v>1.019628755742264</v>
       </c>
       <c r="D25">
-        <v>1.004672848461244</v>
+        <v>1.025805314529046</v>
       </c>
       <c r="E25">
-        <v>0.991332714277861</v>
+        <v>1.02076855679824</v>
       </c>
       <c r="F25">
-        <v>0.9900764000432742</v>
+        <v>1.030416707462434</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039185120348199</v>
+        <v>1.030045792639809</v>
       </c>
       <c r="J25">
-        <v>1.007107136150856</v>
+        <v>1.025320706801654</v>
       </c>
       <c r="K25">
-        <v>1.017199054997582</v>
+        <v>1.028889589147865</v>
       </c>
       <c r="L25">
-        <v>1.004067085472477</v>
+        <v>1.02386908724948</v>
       </c>
       <c r="M25">
-        <v>1.002830745592048</v>
+        <v>1.033486251570873</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_66/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_66/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021023025749022</v>
+        <v>0.9889437508818397</v>
       </c>
       <c r="D2">
-        <v>1.026857640674566</v>
+        <v>1.009922342023865</v>
       </c>
       <c r="E2">
-        <v>1.021951966342954</v>
+        <v>0.9969058469729758</v>
       </c>
       <c r="F2">
-        <v>1.032116099227337</v>
+        <v>0.9981880596026977</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030361160355374</v>
+        <v>1.041438006221646</v>
       </c>
       <c r="J2">
-        <v>1.026216834019222</v>
+        <v>1.011460257354392</v>
       </c>
       <c r="K2">
-        <v>1.029679062523881</v>
+        <v>1.021245152199638</v>
       </c>
       <c r="L2">
-        <v>1.024787780392354</v>
+        <v>1.008408457241264</v>
       </c>
       <c r="M2">
-        <v>1.034922259029289</v>
+        <v>1.009672695486024</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022035308878848</v>
+        <v>0.9938498338838592</v>
       </c>
       <c r="D3">
-        <v>1.027620776174032</v>
+        <v>1.013609249305252</v>
       </c>
       <c r="E3">
-        <v>1.022812020828122</v>
+        <v>1.000833755427375</v>
       </c>
       <c r="F3">
-        <v>1.033349849340407</v>
+        <v>1.003882096065704</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030586067626785</v>
+        <v>1.042987641901945</v>
       </c>
       <c r="J3">
-        <v>1.026866229871618</v>
+        <v>1.014509574425493</v>
       </c>
       <c r="K3">
-        <v>1.030249921204314</v>
+        <v>1.024070908951394</v>
       </c>
       <c r="L3">
-        <v>1.025454251091352</v>
+        <v>1.011455979301515</v>
       </c>
       <c r="M3">
-        <v>1.035963576800367</v>
+        <v>1.014465544566522</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022690289298438</v>
+        <v>0.9969520679279306</v>
       </c>
       <c r="D4">
-        <v>1.028114135043577</v>
+        <v>1.015940465788945</v>
       </c>
       <c r="E4">
-        <v>1.023368899236907</v>
+        <v>1.003323814337478</v>
       </c>
       <c r="F4">
-        <v>1.034148103976442</v>
+        <v>1.00748202654282</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030729709575228</v>
+        <v>1.043952215906624</v>
       </c>
       <c r="J4">
-        <v>1.027285843640974</v>
+        <v>1.016434062776141</v>
       </c>
       <c r="K4">
-        <v>1.030618207240159</v>
+        <v>1.025850236148333</v>
       </c>
       <c r="L4">
-        <v>1.025885232049177</v>
+        <v>1.013382288699313</v>
       </c>
       <c r="M4">
-        <v>1.036636760968425</v>
+        <v>1.017490981102589</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022965634922377</v>
+        <v>0.9982396146979907</v>
       </c>
       <c r="D5">
-        <v>1.02832143690781</v>
+        <v>1.01690792024723</v>
       </c>
       <c r="E5">
-        <v>1.023603097918481</v>
+        <v>1.004358756758101</v>
       </c>
       <c r="F5">
-        <v>1.034483675871122</v>
+        <v>1.00897605031908</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030789644338343</v>
+        <v>1.044348829080336</v>
       </c>
       <c r="J5">
-        <v>1.027462108071866</v>
+        <v>1.017231883966748</v>
       </c>
       <c r="K5">
-        <v>1.030772771469811</v>
+        <v>1.026586882109729</v>
       </c>
       <c r="L5">
-        <v>1.026066351428871</v>
+        <v>1.01418157113606</v>
       </c>
       <c r="M5">
-        <v>1.036919620342932</v>
+        <v>1.018745422336213</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023011866189614</v>
+        <v>0.9984548432703673</v>
       </c>
       <c r="D6">
-        <v>1.028356237555486</v>
+        <v>1.017069634458368</v>
       </c>
       <c r="E6">
-        <v>1.023642425993546</v>
+        <v>1.004531844640047</v>
       </c>
       <c r="F6">
-        <v>1.034540019056433</v>
+        <v>1.009225790125849</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030799681116231</v>
+        <v>1.044414907298498</v>
       </c>
       <c r="J6">
-        <v>1.027491695358307</v>
+        <v>1.01736519429897</v>
       </c>
       <c r="K6">
-        <v>1.030798708036184</v>
+        <v>1.02670991126832</v>
       </c>
       <c r="L6">
-        <v>1.026096758347196</v>
+        <v>1.014315167103903</v>
       </c>
       <c r="M6">
-        <v>1.036967105062466</v>
+        <v>1.018955044932264</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022693968512018</v>
+        <v>0.9969693366691091</v>
       </c>
       <c r="D7">
-        <v>1.028116905439404</v>
+        <v>1.01595344185289</v>
       </c>
       <c r="E7">
-        <v>1.023372028269995</v>
+        <v>1.003337689365189</v>
       </c>
       <c r="F7">
-        <v>1.034152587959675</v>
+        <v>1.007502064863762</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03073051220413</v>
+        <v>1.043957550112414</v>
       </c>
       <c r="J7">
-        <v>1.027288199450057</v>
+        <v>1.016444766920981</v>
       </c>
       <c r="K7">
-        <v>1.030620273569789</v>
+        <v>1.02586012349137</v>
       </c>
       <c r="L7">
-        <v>1.025887652431098</v>
+        <v>1.01339300965918</v>
       </c>
       <c r="M7">
-        <v>1.036640541126947</v>
+        <v>1.017507810676888</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021365138770246</v>
+        <v>0.9906171852858748</v>
       </c>
       <c r="D8">
-        <v>1.027115636766293</v>
+        <v>1.011179904089085</v>
       </c>
       <c r="E8">
-        <v>1.022242549751743</v>
+        <v>0.9982442665850468</v>
       </c>
       <c r="F8">
-        <v>1.032533064755057</v>
+        <v>1.000130402906989</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030437559585888</v>
+        <v>1.041969758721726</v>
       </c>
       <c r="J8">
-        <v>1.026436422151552</v>
+        <v>1.012501108810839</v>
       </c>
       <c r="K8">
-        <v>1.029872213919613</v>
+        <v>1.02221053642253</v>
       </c>
       <c r="L8">
-        <v>1.025013073018771</v>
+        <v>1.009448073036296</v>
       </c>
       <c r="M8">
-        <v>1.035274305651307</v>
+        <v>1.011308608091851</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019023301711726</v>
+        <v>0.978837041131539</v>
       </c>
       <c r="D9">
-        <v>1.025347926024503</v>
+        <v>1.002329680567765</v>
       </c>
       <c r="E9">
-        <v>1.020255087863559</v>
+        <v>0.9888517833761178</v>
       </c>
       <c r="F9">
-        <v>1.029678720373752</v>
+        <v>0.9864529334601884</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029906891755308</v>
+        <v>1.03816340253987</v>
       </c>
       <c r="J9">
-        <v>1.02493098261118</v>
+        <v>1.005159907429085</v>
       </c>
       <c r="K9">
-        <v>1.028545648330748</v>
+        <v>1.015385073073773</v>
       </c>
       <c r="L9">
-        <v>1.02346989778703</v>
+        <v>1.002128359806191</v>
       </c>
       <c r="M9">
-        <v>1.032862057811753</v>
+        <v>0.9997696940179061</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.017461885053878</v>
+        <v>0.9705394215642132</v>
       </c>
       <c r="D10">
-        <v>1.024167237915181</v>
+        <v>0.9961021638919471</v>
       </c>
       <c r="E10">
-        <v>1.018932040513843</v>
+        <v>0.982276012915489</v>
       </c>
       <c r="F10">
-        <v>1.02777539502124</v>
+        <v>0.9768108621299717</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029543414756537</v>
+        <v>1.035404344573163</v>
       </c>
       <c r="J10">
-        <v>1.023924342570065</v>
+        <v>0.9999727058618718</v>
       </c>
       <c r="K10">
-        <v>1.027655653204197</v>
+        <v>1.010542153421009</v>
       </c>
       <c r="L10">
-        <v>1.022439750198952</v>
+        <v>0.9969728270700773</v>
       </c>
       <c r="M10">
-        <v>1.031250638827236</v>
+        <v>0.9916118180006718</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.016785725396325</v>
+        <v>0.9668288437517374</v>
       </c>
       <c r="D11">
-        <v>1.023655468594213</v>
+        <v>0.9933199435920849</v>
       </c>
       <c r="E11">
-        <v>1.018359608842899</v>
+        <v>0.9793458624923305</v>
       </c>
       <c r="F11">
-        <v>1.026951116252103</v>
+        <v>0.9724962657110552</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029383727610242</v>
+        <v>1.034152815191589</v>
       </c>
       <c r="J11">
-        <v>1.023487743101467</v>
+        <v>0.9976497907995077</v>
       </c>
       <c r="K11">
-        <v>1.027268946873312</v>
+        <v>1.008368945169578</v>
       </c>
       <c r="L11">
-        <v>1.021993364302189</v>
+        <v>0.9946680876819011</v>
       </c>
       <c r="M11">
-        <v>1.030552092907546</v>
+        <v>0.9879561941896089</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016534560770623</v>
+        <v>0.965431745535093</v>
       </c>
       <c r="D12">
-        <v>1.023465296480981</v>
+        <v>0.9922728869272981</v>
       </c>
       <c r="E12">
-        <v>1.018147051172518</v>
+        <v>0.9782442632568972</v>
       </c>
       <c r="F12">
-        <v>1.026644921926504</v>
+        <v>0.970871238314247</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02932406740875</v>
+        <v>1.033678999714853</v>
       </c>
       <c r="J12">
-        <v>1.023325462826982</v>
+        <v>0.9967747330677799</v>
       </c>
       <c r="K12">
-        <v>1.027125106940797</v>
+        <v>1.007549638794915</v>
       </c>
       <c r="L12">
-        <v>1.021827508000153</v>
+        <v>0.9938004849698772</v>
       </c>
       <c r="M12">
-        <v>1.030292501877016</v>
+        <v>0.9865786175792171</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016588436841444</v>
+        <v>0.9657322992053103</v>
       </c>
       <c r="D13">
-        <v>1.023506092576274</v>
+        <v>0.9924981129536283</v>
       </c>
       <c r="E13">
-        <v>1.018192642389192</v>
+        <v>0.9784811709388982</v>
       </c>
       <c r="F13">
-        <v>1.026710602600263</v>
+        <v>0.9712208500110076</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02933688034711</v>
+        <v>1.033781046210671</v>
       </c>
       <c r="J13">
-        <v>1.023360277374097</v>
+        <v>0.9969630006503412</v>
       </c>
       <c r="K13">
-        <v>1.027155970140797</v>
+        <v>1.007725940191818</v>
       </c>
       <c r="L13">
-        <v>1.021863086941554</v>
+        <v>0.9939871210082643</v>
       </c>
       <c r="M13">
-        <v>1.030348190481914</v>
+        <v>0.986875025095073</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.016764964232427</v>
+        <v>0.966713750177297</v>
       </c>
       <c r="D14">
-        <v>1.02363975050065</v>
+        <v>0.9932336758597093</v>
       </c>
       <c r="E14">
-        <v>1.018342037351225</v>
+        <v>0.979255078140172</v>
       </c>
       <c r="F14">
-        <v>1.026925806560371</v>
+        <v>0.9723624060161629</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029378803122272</v>
+        <v>1.034113834312597</v>
       </c>
       <c r="J14">
-        <v>1.023474331162115</v>
+        <v>0.9975777117605783</v>
       </c>
       <c r="K14">
-        <v>1.027257061097967</v>
+        <v>1.008301471328006</v>
       </c>
       <c r="L14">
-        <v>1.021979655561222</v>
+        <v>0.9945966103165643</v>
       </c>
       <c r="M14">
-        <v>1.0305306374861</v>
+        <v>0.9878427328011451</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.016873727402467</v>
+        <v>0.9673159240916731</v>
       </c>
       <c r="D15">
-        <v>1.023722091210381</v>
+        <v>0.993685052811303</v>
       </c>
       <c r="E15">
-        <v>1.018434093663436</v>
+        <v>0.9797301331883923</v>
       </c>
       <c r="F15">
-        <v>1.027058398062463</v>
+        <v>0.9730627438642666</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029404587378264</v>
+        <v>1.034317678567651</v>
       </c>
       <c r="J15">
-        <v>1.023544589182519</v>
+        <v>0.9979548144405527</v>
       </c>
       <c r="K15">
-        <v>1.027319320079859</v>
+        <v>1.008654454494853</v>
       </c>
       <c r="L15">
-        <v>1.022051470885672</v>
+        <v>0.9949705899785358</v>
       </c>
       <c r="M15">
-        <v>1.030643033174634</v>
+        <v>0.9884363191893275</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017506758329225</v>
+        <v>0.9707831057525345</v>
       </c>
       <c r="D16">
-        <v>1.024201191367888</v>
+        <v>0.9962849435407849</v>
       </c>
       <c r="E16">
-        <v>1.018970040567531</v>
+        <v>0.9824686684654326</v>
       </c>
       <c r="F16">
-        <v>1.027830096898062</v>
+        <v>0.9770941487467452</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029553964237325</v>
+        <v>1.035486173348137</v>
       </c>
       <c r="J16">
-        <v>1.023953303120903</v>
+        <v>1.000125194605379</v>
       </c>
       <c r="K16">
-        <v>1.027681289573074</v>
+        <v>1.010684723971875</v>
       </c>
       <c r="L16">
-        <v>1.022469368522424</v>
+        <v>0.9971242063475124</v>
       </c>
       <c r="M16">
-        <v>1.031296982258285</v>
+        <v>0.9918517334117616</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.017903826634185</v>
+        <v>0.9729256973438878</v>
       </c>
       <c r="D17">
-        <v>1.024501578390591</v>
+        <v>0.9978923436843817</v>
       </c>
       <c r="E17">
-        <v>1.019306348382218</v>
+        <v>0.9841637867061035</v>
       </c>
       <c r="F17">
-        <v>1.028314128303831</v>
+        <v>0.9795846171603766</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029647048935288</v>
+        <v>1.036203648252618</v>
       </c>
       <c r="J17">
-        <v>1.024209486455568</v>
+        <v>1.001465585366486</v>
       </c>
       <c r="K17">
-        <v>1.027907986864687</v>
+        <v>1.011937428946838</v>
       </c>
       <c r="L17">
-        <v>1.022731417714858</v>
+        <v>0.9984552989404609</v>
       </c>
       <c r="M17">
-        <v>1.031706974691625</v>
+        <v>0.9939603280531141</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.018135424489402</v>
+        <v>0.974164165428768</v>
       </c>
       <c r="D18">
-        <v>1.024676738510691</v>
+        <v>0.9988217011406466</v>
       </c>
       <c r="E18">
-        <v>1.019502555069406</v>
+        <v>0.9851445869838604</v>
       </c>
       <c r="F18">
-        <v>1.028596443546143</v>
+        <v>0.981023907288229</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029701121815175</v>
+        <v>1.036616683994893</v>
       </c>
       <c r="J18">
-        <v>1.024358844612065</v>
+        <v>1.002240049346495</v>
       </c>
       <c r="K18">
-        <v>1.028040086971639</v>
+        <v>1.012660804601248</v>
       </c>
       <c r="L18">
-        <v>1.022884235188965</v>
+        <v>0.9992247676427471</v>
       </c>
       <c r="M18">
-        <v>1.031946040112206</v>
+        <v>0.9951784344207898</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018214392474965</v>
+        <v>0.9745845728637356</v>
       </c>
       <c r="D19">
-        <v>1.02473645499711</v>
+        <v>0.9991372168111399</v>
       </c>
       <c r="E19">
-        <v>1.01956946393671</v>
+        <v>0.9854776912766772</v>
       </c>
       <c r="F19">
-        <v>1.028692703743671</v>
+        <v>0.9815124437762907</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029719521635837</v>
+        <v>1.036756604877269</v>
       </c>
       <c r="J19">
-        <v>1.024409760136888</v>
+        <v>1.002502892396923</v>
       </c>
       <c r="K19">
-        <v>1.028085107876799</v>
+        <v>1.012906236159959</v>
       </c>
       <c r="L19">
-        <v>1.022936336670112</v>
+        <v>0.9994859791025748</v>
       </c>
       <c r="M19">
-        <v>1.032027542347841</v>
+        <v>0.9955918103969019</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.0178612255211</v>
+        <v>0.9726969911727296</v>
       </c>
       <c r="D20">
-        <v>1.02446935493087</v>
+        <v>0.9977207394489048</v>
       </c>
       <c r="E20">
-        <v>1.019270261179776</v>
+        <v>0.983982742535861</v>
       </c>
       <c r="F20">
-        <v>1.02826219757572</v>
+        <v>0.9793188051027506</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029637084773963</v>
+        <v>1.036127237045547</v>
       </c>
       <c r="J20">
-        <v>1.024182007570587</v>
+        <v>1.001322540487679</v>
       </c>
       <c r="K20">
-        <v>1.02788367768948</v>
+        <v>1.011803785656041</v>
       </c>
       <c r="L20">
-        <v>1.022703305561753</v>
+        <v>0.9983132071477008</v>
       </c>
       <c r="M20">
-        <v>1.031662994276506</v>
+        <v>0.9937353248267189</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016712981562542</v>
+        <v>0.9664252666890465</v>
       </c>
       <c r="D21">
-        <v>1.023600393728327</v>
+        <v>0.9930174530917846</v>
       </c>
       <c r="E21">
-        <v>1.01829804235265</v>
+        <v>0.9790275529589771</v>
       </c>
       <c r="F21">
-        <v>1.026862434935709</v>
+        <v>0.9720268765685075</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029366467440311</v>
+        <v>1.034016086749533</v>
       </c>
       <c r="J21">
-        <v>1.023440748139619</v>
+        <v>0.9973970378586748</v>
       </c>
       <c r="K21">
-        <v>1.027227297849487</v>
+        <v>1.008132330573816</v>
       </c>
       <c r="L21">
-        <v>1.021945330351417</v>
+        <v>0.9944174543941013</v>
       </c>
       <c r="M21">
-        <v>1.03047691471189</v>
+        <v>0.9875583214418476</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015990983756228</v>
+        <v>0.9623724299582278</v>
       </c>
       <c r="D22">
-        <v>1.023053591106814</v>
+        <v>0.9899811156041367</v>
       </c>
       <c r="E22">
-        <v>1.017687168820078</v>
+        <v>0.9758351646297183</v>
       </c>
       <c r="F22">
-        <v>1.025982229308187</v>
+        <v>0.9673117798394257</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029194321935673</v>
+        <v>1.032636763767292</v>
       </c>
       <c r="J22">
-        <v>1.022974065274338</v>
+        <v>0.9948578153186872</v>
       </c>
       <c r="K22">
-        <v>1.026813448855532</v>
+        <v>1.005753696054889</v>
       </c>
       <c r="L22">
-        <v>1.021468479534298</v>
+        <v>0.991901027502604</v>
       </c>
       <c r="M22">
-        <v>1.029730484710148</v>
+        <v>0.983559852101713</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.016373733453141</v>
+        <v>0.9645317096187378</v>
       </c>
       <c r="D23">
-        <v>1.02334350423649</v>
+        <v>0.9915985079113816</v>
       </c>
       <c r="E23">
-        <v>1.018010966500164</v>
+        <v>0.9775350704989767</v>
       </c>
       <c r="F23">
-        <v>1.026448854779622</v>
+        <v>0.9698242124788831</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029285768831634</v>
+        <v>1.033373037561192</v>
       </c>
       <c r="J23">
-        <v>1.023221521795741</v>
+        <v>0.9962108881214933</v>
       </c>
       <c r="K23">
-        <v>1.027032947630211</v>
+        <v>1.007021539257792</v>
       </c>
       <c r="L23">
-        <v>1.021721293829054</v>
+        <v>0.9932416161558448</v>
       </c>
       <c r="M23">
-        <v>1.030126247614299</v>
+        <v>0.9856908231860237</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017880475146721</v>
+        <v>0.9728003683880542</v>
       </c>
       <c r="D24">
-        <v>1.0244839154814</v>
+        <v>0.9977983053387298</v>
       </c>
       <c r="E24">
-        <v>1.019286567297095</v>
+        <v>0.984064573063921</v>
       </c>
       <c r="F24">
-        <v>1.028285662873288</v>
+        <v>0.9794389553042736</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029641587834978</v>
+        <v>1.036161780809537</v>
       </c>
       <c r="J24">
-        <v>1.024194424309744</v>
+        <v>1.001387199015717</v>
       </c>
       <c r="K24">
-        <v>1.027894662356605</v>
+        <v>1.011864195837626</v>
       </c>
       <c r="L24">
-        <v>1.022716008330556</v>
+        <v>0.9983774336964758</v>
       </c>
       <c r="M24">
-        <v>1.031682867368113</v>
+        <v>0.9938370304800677</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019628755742264</v>
+        <v>0.9819569097813525</v>
       </c>
       <c r="D25">
-        <v>1.025805314529046</v>
+        <v>1.004672848461243</v>
       </c>
       <c r="E25">
-        <v>1.02076855679824</v>
+        <v>0.9913327142778604</v>
       </c>
       <c r="F25">
-        <v>1.030416707462434</v>
+        <v>0.9900764000432738</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030045792639809</v>
+        <v>1.039185120348198</v>
       </c>
       <c r="J25">
-        <v>1.025320706801654</v>
+        <v>1.007107136150856</v>
       </c>
       <c r="K25">
-        <v>1.028889589147865</v>
+        <v>1.017199054997581</v>
       </c>
       <c r="L25">
-        <v>1.02386908724948</v>
+        <v>1.004067085472477</v>
       </c>
       <c r="M25">
-        <v>1.033486251570873</v>
+        <v>1.002830745592047</v>
       </c>
     </row>
   </sheetData>
